--- a/NhatKySeo.xlsx
+++ b/NhatKySeo.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="60" windowWidth="22932" windowHeight="9504" activeTab="1"/>
+    <workbookView xWindow="96" yWindow="60" windowWidth="22932" windowHeight="9504"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="BaiViet" sheetId="1" r:id="rId1"/>
+    <sheet name="BackLink" sheetId="2" r:id="rId2"/>
+    <sheet name="Picture" sheetId="3" r:id="rId3"/>
+    <sheet name="Từ Khóa" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
   <si>
     <t>Url</t>
   </si>
@@ -112,6 +114,126 @@
   </si>
   <si>
     <t>http://raovat.vnexpress.net</t>
+  </si>
+  <si>
+    <t>http://raovat.net/xem/6500763-chuyen-cung-cap-cac-thiet-bi-bao-ho-lao-dong,.html#.V7SUODWJiPE</t>
+  </si>
+  <si>
+    <t>raovat.net</t>
+  </si>
+  <si>
+    <t>http://www.chodansinh.net/view-198279/d%c3%a9p-ph%c3%b2ng-s%e1%ba%a1ch-ch%e1%bb%91ng-t%c4%a9nh-%c4%91i%e1%bb%87n/</t>
+  </si>
+  <si>
+    <t>chodanhsinh.net</t>
+  </si>
+  <si>
+    <t>http://baoholaodongdonganh.com/dep-phong-sach-84</t>
+  </si>
+  <si>
+    <t>http://baoholaodongdonganh.com/giay-phong-sach-linkworld-83</t>
+  </si>
+  <si>
+    <t>http://baoholaodongdonganh.com/giay-mat-luoi-linkworld-82</t>
+  </si>
+  <si>
+    <t>http://baoholaodongdonganh.com/giay-phong-sach-mui-thep-81</t>
+  </si>
+  <si>
+    <t>http://baoholaodongdonganh.com/giay-4-lo-vai-tim-than-80</t>
+  </si>
+  <si>
+    <t>http://baoholaodongdonganh.com/ngon-cao-su-trang-79</t>
+  </si>
+  <si>
+    <t>http://baoholaodongdonganh.com/khan-lau-1009d-86</t>
+  </si>
+  <si>
+    <t>http://baoholaodongdonganh.com/khan-lau-phong-sach-8009-85</t>
+  </si>
+  <si>
+    <t>http://baoholaodongdonganh.com/tin/gang-tay-len-bao-ho-112</t>
+  </si>
+  <si>
+    <t>http://thongtingia.com/c14/a217072/dich-vu-doanh-nghiep/giay-khan-lau-phong-sach.html</t>
+  </si>
+  <si>
+    <t>thongtingia.com</t>
+  </si>
+  <si>
+    <t>http://baoholaodongdonganh.com/khan-lau-phong-sach-87</t>
+  </si>
+  <si>
+    <t>http://baoholaodongdonganh.com/khan-lau-phong-sach-kb2009-7inch-88</t>
+  </si>
+  <si>
+    <t>Đã post hết lên facebook</t>
+  </si>
+  <si>
+    <t>Lưu ý viết các bài gồm từ khóa liên kết đến chính nó và liên kết đến category: Đã chỉnh hết</t>
+  </si>
+  <si>
+    <t>khanlauphongsach.com</t>
+  </si>
+  <si>
+    <t>khanlauphongsach.com làm site để tạo backlink, dẫn bài về, chưa tạo sitemap, tầm 3 tiếng 1 site</t>
+  </si>
+  <si>
+    <t>ngón cao su</t>
+  </si>
+  <si>
+    <t>từ khóa</t>
+  </si>
+  <si>
+    <t>thời gian</t>
+  </si>
+  <si>
+    <t>https://www.google.com.vn/search?q=ng%C3%B3n+cao+su&amp;oq=ng%C3%B3n+cao+su&amp;aqs=chrome..69i57j0l2j69i59j0l2.306j0j7&amp;sourceid=chrome&amp;ie=UTF-8#q=ng%C3%B3n+cao+su&amp;start=20</t>
+  </si>
+  <si>
+    <t>kết quả</t>
+  </si>
+  <si>
+    <t>trang 3 google</t>
+  </si>
+  <si>
+    <t>http://baoholaodongdonganh.com/giay-lau-bemcot-m3-94</t>
+  </si>
+  <si>
+    <t>http://baoholaodongdonganh.com/khan-lau-phong-sach-8009-93</t>
+  </si>
+  <si>
+    <t>http://baoholaodongdonganh.com/khan-lau-phong-sach-6009-92</t>
+  </si>
+  <si>
+    <t>http://baoholaodongdonganh.com/tin/nhung-dieu-ban-nen-biet-truoc-khi-mua-khau-trang-phong-doc-116</t>
+  </si>
+  <si>
+    <t>http://baoholaodongdonganh.com/tin/gang-tay-chong-dien-115</t>
+  </si>
+  <si>
+    <t>http://baoholaodongdonganh.com/tin/kinh-mat-bao-ho-trong-qua-trinh-lao-dong-113</t>
+  </si>
+  <si>
+    <t>https://www.google.com.vn/search?q=khan+lau+phong+sach&amp;oq=khan+lau+phong+sach&amp;aqs=chrome..69i57.6321j0j1&amp;sourceid=chrome&amp;ie=UTF-8#q=d%C3%A9p+ch%E1%BB%91ng+t%C4%A9nh+%C4%91i%E1%BB%87n&amp;start=30</t>
+  </si>
+  <si>
+    <t>trang 4 google</t>
+  </si>
+  <si>
+    <t>dép chống tĩnh điện</t>
+  </si>
+  <si>
+    <t>https://www.google.com.vn/search?q=gi%E1%BA%A7y+d%C3%A9p+ch%E1%BB%91ng+t%C4%A9nh+%C4%91i%E1%BB%87n&amp;oq=gi%E1%BA%A7y+d%C3%A9p+ch%E1%BB%91ng+t%C4%A9nh+%C4%91i%E1%BB%87n&amp;aqs=chrome..69i57.282j0j1&amp;sourceid=chrome&amp;ie=UTF-8#q=gi%E1%BA%A7y+d%C3%A9p+ch%E1%BB%91ng+t%C4%A9nh+%C4%91i%E1%BB%87n&amp;start=20</t>
+  </si>
+  <si>
+    <t>giầy dép chống tĩnh điện</t>
+  </si>
+  <si>
+    <t>http://baoholaodongdonganh.com/khan-lau-phong-sach-1009d-86</t>
+  </si>
+  <si>
+    <t>http://baoholaodongdonganh.com/khan-lau-phong-sach-3009-85</t>
   </si>
 </sst>
 </file>
@@ -166,11 +288,12 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -179,6 +302,49 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>1269</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>714</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="1.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="365760"/>
+          <a:ext cx="14631669" cy="8230314"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -466,24 +632,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C2:E16"/>
+  <dimension ref="C2:I35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="4" width="85.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="92.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:5">
+    <row r="2" spans="3:9">
       <c r="D2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="3:5">
+      <c r="G2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="3:9">
       <c r="C3" t="s">
         <v>1</v>
       </c>
@@ -494,7 +663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="3:5">
+    <row r="4" spans="3:9">
       <c r="C4">
         <v>1</v>
       </c>
@@ -504,8 +673,11 @@
       <c r="E4" s="1">
         <v>42598</v>
       </c>
-    </row>
-    <row r="5" spans="3:5">
+      <c r="I4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9">
       <c r="C5">
         <v>2</v>
       </c>
@@ -516,7 +688,7 @@
         <v>42598</v>
       </c>
     </row>
-    <row r="6" spans="3:5">
+    <row r="6" spans="3:9">
       <c r="C6">
         <v>3</v>
       </c>
@@ -527,7 +699,7 @@
         <v>42597</v>
       </c>
     </row>
-    <row r="7" spans="3:5">
+    <row r="7" spans="3:9">
       <c r="C7">
         <v>4</v>
       </c>
@@ -538,7 +710,7 @@
         <v>42597</v>
       </c>
     </row>
-    <row r="8" spans="3:5">
+    <row r="8" spans="3:9">
       <c r="C8">
         <v>5</v>
       </c>
@@ -549,7 +721,7 @@
         <v>42597</v>
       </c>
     </row>
-    <row r="9" spans="3:5">
+    <row r="9" spans="3:9">
       <c r="C9">
         <v>6</v>
       </c>
@@ -560,7 +732,7 @@
         <v>42597</v>
       </c>
     </row>
-    <row r="10" spans="3:5">
+    <row r="10" spans="3:9">
       <c r="C10">
         <v>7</v>
       </c>
@@ -571,7 +743,7 @@
         <v>42597</v>
       </c>
     </row>
-    <row r="11" spans="3:5">
+    <row r="11" spans="3:9">
       <c r="C11">
         <v>8</v>
       </c>
@@ -582,7 +754,7 @@
         <v>42597</v>
       </c>
     </row>
-    <row r="12" spans="3:5">
+    <row r="12" spans="3:9">
       <c r="C12">
         <v>9</v>
       </c>
@@ -593,7 +765,7 @@
         <v>42598</v>
       </c>
     </row>
-    <row r="13" spans="3:5">
+    <row r="13" spans="3:9">
       <c r="C13">
         <v>10</v>
       </c>
@@ -604,7 +776,7 @@
         <v>42598</v>
       </c>
     </row>
-    <row r="14" spans="3:5">
+    <row r="14" spans="3:9">
       <c r="C14">
         <v>11</v>
       </c>
@@ -615,7 +787,7 @@
         <v>42598</v>
       </c>
     </row>
-    <row r="15" spans="3:5">
+    <row r="15" spans="3:9">
       <c r="C15">
         <v>12</v>
       </c>
@@ -626,7 +798,7 @@
         <v>42598</v>
       </c>
     </row>
-    <row r="16" spans="3:5">
+    <row r="16" spans="3:9">
       <c r="C16">
         <v>13</v>
       </c>
@@ -635,6 +807,215 @@
       </c>
       <c r="E16" s="1">
         <v>42598</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5">
+      <c r="C17">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="1">
+        <v>42599</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5">
+      <c r="C18">
+        <v>15</v>
+      </c>
+      <c r="D18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="1">
+        <v>42599</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5">
+      <c r="C19">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="1">
+        <v>42599</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5">
+      <c r="C20">
+        <v>17</v>
+      </c>
+      <c r="D20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="1">
+        <v>42599</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5">
+      <c r="C21">
+        <v>18</v>
+      </c>
+      <c r="D21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="1">
+        <v>42599</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5">
+      <c r="C22">
+        <v>19</v>
+      </c>
+      <c r="D22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="1">
+        <v>42599</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5">
+      <c r="C23">
+        <v>20</v>
+      </c>
+      <c r="D23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="1">
+        <v>42600</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5">
+      <c r="C24">
+        <v>21</v>
+      </c>
+      <c r="D24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="1">
+        <v>42600</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5">
+      <c r="C25">
+        <v>22</v>
+      </c>
+      <c r="D25" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="1">
+        <v>42600</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5">
+      <c r="C26">
+        <v>23</v>
+      </c>
+      <c r="D26" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="1">
+        <v>42600</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5">
+      <c r="C27">
+        <v>24</v>
+      </c>
+      <c r="D27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="1">
+        <v>42600</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5">
+      <c r="C28">
+        <v>25</v>
+      </c>
+      <c r="D28" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="1">
+        <v>42602</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5">
+      <c r="C29">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" s="1">
+        <v>42602</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5">
+      <c r="C30">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>61</v>
+      </c>
+      <c r="E30" s="1">
+        <v>42602</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5">
+      <c r="C31">
+        <v>28</v>
+      </c>
+      <c r="D31" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" s="1">
+        <v>42602</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5">
+      <c r="C32">
+        <v>29</v>
+      </c>
+      <c r="D32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E32" s="1">
+        <v>42601</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5">
+      <c r="C33">
+        <v>30</v>
+      </c>
+      <c r="D33" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" s="1">
+        <v>42601</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5">
+      <c r="C34">
+        <v>31</v>
+      </c>
+      <c r="D34" t="s">
+        <v>70</v>
+      </c>
+      <c r="E34" s="1">
+        <v>42600</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5">
+      <c r="C35">
+        <v>32</v>
+      </c>
+      <c r="D35" t="s">
+        <v>71</v>
+      </c>
+      <c r="E35" s="1">
+        <v>42600</v>
       </c>
     </row>
   </sheetData>
@@ -644,16 +1025,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="D3:G9"/>
+  <dimension ref="D3:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="102.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="117.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -746,18 +1127,160 @@
         <v>42598</v>
       </c>
     </row>
+    <row r="10" spans="4:7">
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="1">
+        <v>42599</v>
+      </c>
+    </row>
+    <row r="11" spans="4:7">
+      <c r="D11">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="1">
+        <v>42600</v>
+      </c>
+    </row>
+    <row r="12" spans="4:7">
+      <c r="D12">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="1">
+        <v>42601</v>
+      </c>
+    </row>
+    <row r="13" spans="4:7">
+      <c r="D13">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F5" r:id="rId1"/>
     <hyperlink ref="F6" r:id="rId2" location="post781114"/>
     <hyperlink ref="F9" r:id="rId3"/>
+    <hyperlink ref="F12" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="E3:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="5:8">
+      <c r="E3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="5:8">
+      <c r="E4" s="1">
+        <v>42601</v>
+      </c>
+      <c r="F4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="5:8">
+      <c r="E5" s="1">
+        <v>42602</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="5:8">
+      <c r="E6" s="1">
+        <v>42602</v>
+      </c>
+      <c r="F6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>

--- a/NhatKySeo.xlsx
+++ b/NhatKySeo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="60" windowWidth="22932" windowHeight="9504"/>
+    <workbookView xWindow="96" yWindow="60" windowWidth="22932" windowHeight="9504" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="BaiViet" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
   <si>
     <t>Url</t>
   </si>
@@ -234,13 +234,16 @@
   </si>
   <si>
     <t>http://baoholaodongdonganh.com/khan-lau-phong-sach-3009-85</t>
+  </si>
+  <si>
+    <t>Cần thận trọng khi tạo site backlink, sau khi tạo site khanlauphongsach.com xong thì không thấy từ khóa khăn lau phòng sạch lên google ở bất kỳ trang nào, có thể do chưa index hết vì mới có 4 bài về khăn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,13 +266,26 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -288,12 +304,13 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -634,7 +651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C2:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
@@ -1209,10 +1226,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="E3:H6"/>
+  <dimension ref="E3:V12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1222,7 +1239,7 @@
     <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="5:8">
+    <row r="3" spans="5:22">
       <c r="E3" t="s">
         <v>55</v>
       </c>
@@ -1233,7 +1250,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="5:8">
+    <row r="4" spans="5:22">
       <c r="E4" s="1">
         <v>42601</v>
       </c>
@@ -1247,7 +1264,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="5:8">
+    <row r="5" spans="5:22">
       <c r="E5" s="1">
         <v>42602</v>
       </c>
@@ -1261,7 +1278,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="5:8">
+    <row r="6" spans="5:22">
       <c r="E6" s="1">
         <v>42602</v>
       </c>
@@ -1275,8 +1292,30 @@
         <v>68</v>
       </c>
     </row>
+    <row r="12" spans="5:22">
+      <c r="F12" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/NhatKySeo.xlsx
+++ b/NhatKySeo.xlsx
@@ -11,14 +11,15 @@
     <sheet name="BackLink" sheetId="2" r:id="rId2"/>
     <sheet name="Picture" sheetId="3" r:id="rId3"/>
     <sheet name="Từ Khóa" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId5"/>
+    <sheet name="Done" sheetId="6" r:id="rId5"/>
+    <sheet name="ToDo" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="221">
   <si>
     <t>Url</t>
   </si>
@@ -237,6 +238,450 @@
   </si>
   <si>
     <t>Cần thận trọng khi tạo site backlink, sau khi tạo site khanlauphongsach.com xong thì không thấy từ khóa khăn lau phòng sạch lên google ở bất kỳ trang nào, có thể do chưa index hết vì mới có 4 bài về khăn</t>
+  </si>
+  <si>
+    <t>23/08/2016</t>
+  </si>
+  <si>
+    <t>khăn lau phòng sạch</t>
+  </si>
+  <si>
+    <t>https://www.google.com.vn/search?q=kh%C4%83n+lau+ph%C3%B2ng+s%E1%BA%A1ch&amp;oq=kh%C4%83n+lau+ph%C3%B2ng+s%E1%BA%A1ch&amp;aqs=chrome..69i57.8402j0j1&amp;sourceid=chrome&amp;ie=UTF-8#q=kh%C4%83n+lau+ph%C3%B2ng+s%E1%BA%A1ch&amp;start=30</t>
+  </si>
+  <si>
+    <t>Em muốn quảng cáo những hàng trong danh mục sau:</t>
+  </si>
+  <si>
+    <t>- ngón cao su</t>
+  </si>
+  <si>
+    <t>- giấy- khăn lau phòng sạch</t>
+  </si>
+  <si>
+    <t>- găng tay phòng sạch</t>
+  </si>
+  <si>
+    <t>- thảm dính bụi</t>
+  </si>
+  <si>
+    <t>- vải chống tĩnh điện( danh mục mới e chưa thêm)</t>
+  </si>
+  <si>
+    <t>găng tay phòng sạch</t>
+  </si>
+  <si>
+    <t>trang 9 google</t>
+  </si>
+  <si>
+    <t>25/08/2016</t>
+  </si>
+  <si>
+    <t>bài cuối vào ngày 23/08</t>
+  </si>
+  <si>
+    <t>……..</t>
+  </si>
+  <si>
+    <t>http://baoholaodongdonganh.com/danh-sach-san-pham/ngon-cao-su-11</t>
+  </si>
+  <si>
+    <t>20/08/2016</t>
+  </si>
+  <si>
+    <t>Các việc đã làm</t>
+  </si>
+  <si>
+    <t>Thêm viết cho cat danh mục lớn và nhỏ</t>
+  </si>
+  <si>
+    <t>24/25/08</t>
+  </si>
+  <si>
+    <t>http://baoholaodongdonganh.com/danh-sach-san-pham-con/giay-khan-lau-phong-sach/khan-lau-phong-sach-75</t>
+  </si>
+  <si>
+    <t>24/08</t>
+  </si>
+  <si>
+    <t>http://baoholaodongdonganh.com/danh-sach-san-pham-con/gang-tay-phong-sach/gang-tay-phong-sach-chong-tinh-dien-76</t>
+  </si>
+  <si>
+    <t>23/08</t>
+  </si>
+  <si>
+    <t>25/08</t>
+  </si>
+  <si>
+    <t>update sitemap</t>
+  </si>
+  <si>
+    <t>62 bài viết</t>
+  </si>
+  <si>
+    <t>https://www.google.com.vn/#q=g%C4%83ng+tay+ph%C3%B2ng+s%E1%BA%A1ch&amp;start=30</t>
+  </si>
+  <si>
+    <t>26/08/2016</t>
+  </si>
+  <si>
+    <t>29/08/2016</t>
+  </si>
+  <si>
+    <t>http://baoholaodongdonganh.com/danh-sach-san-pham-con/vai-chong-tinh-dien/vai-chong-tinh-dien-gia-re-79</t>
+  </si>
+  <si>
+    <t>Vải chống tĩnh điện Polyester 2016</t>
+  </si>
+  <si>
+    <t>Vải bông/cotton chống tĩnh điện</t>
+  </si>
+  <si>
+    <t>Vải chống tĩnh điện với carbon dẫn điện</t>
+  </si>
+  <si>
+    <t>http://www.thegioiseo.com/threads/lam-gi-khi-seo-mai-ma-khong-len-top.484706/page-13</t>
+  </si>
+  <si>
+    <t>thegioiseo.com</t>
+  </si>
+  <si>
+    <t>http://muaban.com.vn/Thiet-bi-san-xuat-115/Gang-tay-phong-sach-ngon-cao-su-khan-lau-phong-sach-chong-tinh-dien-4079422.html</t>
+  </si>
+  <si>
+    <t>http://muaban.com.vn</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>http://hauionline.edu.vn - Xenforo - Link Dofollow Index nhanh</t>
+  </si>
+  <si>
+    <t>http://thegioiseo.com</t>
+  </si>
+  <si>
+    <t>https://vnseo.edu.vn</t>
+  </si>
+  <si>
+    <t>http://forum.idichvuseo.com</t>
+  </si>
+  <si>
+    <t>http://quangbawebsite.edu.vn</t>
+  </si>
+  <si>
+    <t>http://seomxh.com</t>
+  </si>
+  <si>
+    <t>yeudongvat.org</t>
+  </si>
+  <si>
+    <t>xemgiavang.org</t>
+  </si>
+  <si>
+    <t>zippovietnam.net</t>
+  </si>
+  <si>
+    <t>yoyovietnam.com</t>
+  </si>
+  <si>
+    <t>daivietpda.vn</t>
+  </si>
+  <si>
+    <t>gocanchoi.net</t>
+  </si>
+  <si>
+    <t>forums.cpanel.net</t>
+  </si>
+  <si>
+    <t>thegioiraovat.org</t>
+  </si>
+  <si>
+    <t>xaydung.net.vn</t>
+  </si>
+  <si>
+    <t>cfis.edu.vn</t>
+  </si>
+  <si>
+    <t>ebook-hou.edu.vn</t>
+  </si>
+  <si>
+    <t>seovat.com</t>
+  </si>
+  <si>
+    <t>biggame.vn</t>
+  </si>
+  <si>
+    <t>vtld.com.vn</t>
+  </si>
+  <si>
+    <t>staynd.com</t>
+  </si>
+  <si>
+    <t>yanasa.org</t>
+  </si>
+  <si>
+    <t>gofree.info</t>
+  </si>
+  <si>
+    <t>hlpx.net</t>
+  </si>
+  <si>
+    <t>mangraovat.edu.vn</t>
+  </si>
+  <si>
+    <t>forummuaban.net</t>
+  </si>
+  <si>
+    <t>caonguyenxanh.edu.vn</t>
+  </si>
+  <si>
+    <t>nguyencongtrudn.edu.vn</t>
+  </si>
+  <si>
+    <t>diendankhachsan.com</t>
+  </si>
+  <si>
+    <t>conyeucuaban.com</t>
+  </si>
+  <si>
+    <t>seohue.edu.vn</t>
+  </si>
+  <si>
+    <t>gforum.vn</t>
+  </si>
+  <si>
+    <t>24hmua.com</t>
+  </si>
+  <si>
+    <t>chophanrang.vn</t>
+  </si>
+  <si>
+    <t>vietnamnay.com</t>
+  </si>
+  <si>
+    <t>hpu.edu.vn</t>
+  </si>
+  <si>
+    <t>cungtraodoi.info</t>
+  </si>
+  <si>
+    <t>topup.edu.vn</t>
+  </si>
+  <si>
+    <t>netraovat.vn</t>
+  </si>
+  <si>
+    <t>congdongcviet.com</t>
+  </si>
+  <si>
+    <t>uhm.vn</t>
+  </si>
+  <si>
+    <t>diendanseo.edu.vn</t>
+  </si>
+  <si>
+    <t>raovatmienphi.com</t>
+  </si>
+  <si>
+    <t>seotopx.com</t>
+  </si>
+  <si>
+    <t>5giay.edu.vn</t>
+  </si>
+  <si>
+    <t>handheld.com.vn</t>
+  </si>
+  <si>
+    <t>camnangtuvanduhoc.com</t>
+  </si>
+  <si>
+    <t>bamien.com.vn</t>
+  </si>
+  <si>
+    <t>gamevn.com</t>
+  </si>
+  <si>
+    <t>5giay.vn</t>
+  </si>
+  <si>
+    <t>12mua.net</t>
+  </si>
+  <si>
+    <t>ndfloodinfo.com</t>
+  </si>
+  <si>
+    <t>raovatmienphi.edu.vn</t>
+  </si>
+  <si>
+    <t>www.ktkt2.edu.vn</t>
+  </si>
+  <si>
+    <t>raovat24h.edu.vn</t>
+  </si>
+  <si>
+    <t>webs.edu.vn</t>
+  </si>
+  <si>
+    <t>itt.edu.vn</t>
+  </si>
+  <si>
+    <t>www.heep.edu.vn</t>
+  </si>
+  <si>
+    <t>http://www.gdla.gov.vn</t>
+  </si>
+  <si>
+    <t>http://mic.gov.vn</t>
+  </si>
+  <si>
+    <t>http://www.molisa.gov.vn</t>
+  </si>
+  <si>
+    <t>http://hatay.gov.vn</t>
+  </si>
+  <si>
+    <t>http://www.hatay.gov.vn</t>
+  </si>
+  <si>
+    <t>http://gdla.gov.vn</t>
+  </si>
+  <si>
+    <t>http://diendan.camau.gov.vn</t>
+  </si>
+  <si>
+    <t>http://qhkthn.gov.vn</t>
+  </si>
+  <si>
+    <t>http://www.soytekhanhhoa.gov.vn</t>
+  </si>
+  <si>
+    <t>http://genic.molisa.gov.vn</t>
+  </si>
+  <si>
+    <t>http://www.tapchibcvt.gov.vn</t>
+  </si>
+  <si>
+    <t>http://dbndhaiphong.gov.vn</t>
+  </si>
+  <si>
+    <t>http://sonongnghiep.haugiang.gov.vn</t>
+  </si>
+  <si>
+    <t>http://www.diap.gov.vn</t>
+  </si>
+  <si>
+    <t>http://www.dostkhanhhoa.gov.vn</t>
+  </si>
+  <si>
+    <t>http://www.hdcdgsnn.gov.vn</t>
+  </si>
+  <si>
+    <t>http://diendan.idgmv.gov.vn</t>
+  </si>
+  <si>
+    <t>http://www.quantracmoitruong.gov.vn</t>
+  </si>
+  <si>
+    <t>http://khoahoccongnghehanam.gov.vn</t>
+  </si>
+  <si>
+    <t>http://www.skhcn.vinhlong.gov.vn</t>
+  </si>
+  <si>
+    <t>http://bhxhlamdong.gov.vn</t>
+  </si>
+  <si>
+    <t>http://diendan.cidala.gov.vn</t>
+  </si>
+  <si>
+    <t>http://diendan.industry.gov.vn</t>
+  </si>
+  <si>
+    <t>http://tinhdoankontum.gov.vn</t>
+  </si>
+  <si>
+    <t>http://diendan.dafel.gov.vn</t>
+  </si>
+  <si>
+    <t>http://diendan.itvietnam.gov.vn</t>
+  </si>
+  <si>
+    <t>http://ict.sonla.gov.vn</t>
+  </si>
+  <si>
+    <t>http://diendan.email.gov.vn</t>
+  </si>
+  <si>
+    <t>http://forum.thuysan.gov.vn http://myduca.info/md</t>
+  </si>
+  <si>
+    <t>http://cocforum.shtp.hochiminhcity.gov.vn</t>
+  </si>
+  <si>
+    <t>http://forums.sgtvtsonla.gov.vn</t>
+  </si>
+  <si>
+    <t>http://diendan.hcmste.gov.vn</t>
+  </si>
+  <si>
+    <t>http://diendan.hcminvest.gov.vn</t>
+  </si>
+  <si>
+    <t>http://doanccq.hue.gov.vn</t>
+  </si>
+  <si>
+    <t>http://diendan.mpi-oda.gov.vn</t>
+  </si>
+  <si>
+    <t>http://diendan.trustvn.gov.vn</t>
+  </si>
+  <si>
+    <t>http://diendan.phanmem.gov.vn</t>
+  </si>
+  <si>
+    <t>http://cosodulieudoanhnghiep.quangninh.gov.vn</t>
+  </si>
+  <si>
+    <t>http://diendan.hcmctrade.gov.vn</t>
+  </si>
+  <si>
+    <t>http://diendan.hpdpi.gov.vn</t>
+  </si>
+  <si>
+    <t>http://qltt.gialai.gov.vn</t>
+  </si>
+  <si>
+    <t>http://biendoikhihau.cantho.gov.vn</t>
+  </si>
+  <si>
+    <t>http://bvdkla.longan.gov.vn</t>
+  </si>
+  <si>
+    <t>Di hết backlink sau</t>
+  </si>
+  <si>
+    <t>Các site  sau cần gửi backlink</t>
+  </si>
+  <si>
+    <t>Bôi vàng là đã làm rồi</t>
+  </si>
+  <si>
+    <t>vị trí 33</t>
+  </si>
+  <si>
+    <t>Cần quan sát hiệu quả viết bài theo cat, một số từ khóa bị tụt hạng như: Ngón cao su về thứ 4, dép chống tĩnh điện về thứ 6…</t>
+  </si>
+  <si>
+    <t>https://www.google.com.vn/#q=th%E1%BA%A3m+d%C3%ADnh+b%E1%BB%A5i&amp;start=40</t>
+  </si>
+  <si>
+    <t>thảm dính bụi</t>
+  </si>
+  <si>
+    <t>trang 5</t>
+  </si>
+  <si>
+    <t>chưa viết bài category</t>
   </si>
 </sst>
 </file>
@@ -274,7 +719,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -284,6 +729,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -304,13 +761,15 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -649,10 +1108,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C2:I35"/>
+  <dimension ref="C2:N38"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1002,7 +1461,7 @@
         <v>42601</v>
       </c>
     </row>
-    <row r="33" spans="3:5">
+    <row r="33" spans="3:14">
       <c r="C33">
         <v>30</v>
       </c>
@@ -1013,7 +1472,7 @@
         <v>42601</v>
       </c>
     </row>
-    <row r="34" spans="3:5">
+    <row r="34" spans="3:14">
       <c r="C34">
         <v>31</v>
       </c>
@@ -1024,7 +1483,7 @@
         <v>42600</v>
       </c>
     </row>
-    <row r="35" spans="3:5">
+    <row r="35" spans="3:14">
       <c r="C35">
         <v>32</v>
       </c>
@@ -1035,17 +1494,52 @@
         <v>42600</v>
       </c>
     </row>
+    <row r="36" spans="3:14">
+      <c r="D36" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="3:14">
+      <c r="D37" t="s">
+        <v>87</v>
+      </c>
+      <c r="E37" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="3:14">
+      <c r="D38" t="s">
+        <v>102</v>
+      </c>
+      <c r="E38" t="s">
+        <v>101</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F38" r:id="rId1" display="http://baoholaodongdonganh.com/vai-chong-tinh-dien-polyester-2016-109"/>
+    <hyperlink ref="J38" r:id="rId2" display="http://baoholaodongdonganh.com/vai-bongcotton-chong-tinh-dien-108"/>
+    <hyperlink ref="N38" r:id="rId3" display="http://baoholaodongdonganh.com/vai-chong-tinh-dien-voi-carbon-dan-dien-107"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="D3:G13"/>
+  <dimension ref="D3:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1196,6 +1690,34 @@
       <c r="F13" t="s">
         <v>52</v>
       </c>
+      <c r="G13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="4:7">
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>107</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="4:7">
+      <c r="D15">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>109</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>108</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1203,9 +1725,11 @@
     <hyperlink ref="F6" r:id="rId2" location="post781114"/>
     <hyperlink ref="F9" r:id="rId3"/>
     <hyperlink ref="F12" r:id="rId4"/>
+    <hyperlink ref="F14" r:id="rId5"/>
+    <hyperlink ref="F15" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -1213,7 +1737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -1226,10 +1750,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="E3:V12"/>
+  <dimension ref="E3:Z27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="C15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1239,7 +1763,7 @@
     <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="5:22">
+    <row r="3" spans="5:17">
       <c r="E3" t="s">
         <v>55</v>
       </c>
@@ -1250,7 +1774,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="5:22">
+    <row r="4" spans="5:17">
       <c r="E4" s="1">
         <v>42601</v>
       </c>
@@ -1264,7 +1788,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="5:22">
+    <row r="5" spans="5:17">
       <c r="E5" s="1">
         <v>42602</v>
       </c>
@@ -1278,7 +1802,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="5:22">
+    <row r="6" spans="5:17">
       <c r="E6" s="1">
         <v>42602</v>
       </c>
@@ -1292,26 +1816,140 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="5:22">
-      <c r="F12" s="5" t="s">
+    <row r="7" spans="5:17">
+      <c r="E7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="5:17">
+      <c r="E8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="5:17">
+      <c r="E9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="5:17">
+      <c r="E10" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="11" spans="5:17">
+      <c r="E11" t="s">
+        <v>101</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H11" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="17" spans="7:26">
+      <c r="G17" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="20" spans="7:26">
+      <c r="J20" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+    </row>
+    <row r="22" spans="7:26">
+      <c r="J22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="7:26">
+      <c r="J23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="7:26">
+      <c r="J24" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+    </row>
+    <row r="25" spans="7:26">
+      <c r="J25" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K25" s="6"/>
+    </row>
+    <row r="26" spans="7:26">
+      <c r="J26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="7:26">
+      <c r="J27" t="s">
+        <v>81</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1321,12 +1959,548 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="F4:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <cols>
+    <col min="6" max="6" width="105" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="6:8">
+      <c r="F4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="6:8">
+      <c r="F5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="6:8">
+      <c r="F6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G6" t="s">
+        <v>95</v>
+      </c>
+      <c r="H6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="6:8">
+      <c r="F7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="6:8">
+      <c r="F8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" t="s">
+        <v>96</v>
+      </c>
+      <c r="H8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="6:8">
+      <c r="F9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="C5:I68"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="3" max="3" width="53.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="44.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:9">
+      <c r="I5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9">
+      <c r="C6" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9">
+      <c r="C7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9">
+      <c r="H8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9">
+      <c r="C9" t="s">
+        <v>110</v>
+      </c>
+      <c r="H9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9">
+      <c r="C10" t="s">
+        <v>111</v>
+      </c>
+      <c r="H10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9">
+      <c r="C11" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9">
+      <c r="C12" t="s">
+        <v>113</v>
+      </c>
+      <c r="H12" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9">
+      <c r="C13" t="s">
+        <v>114</v>
+      </c>
+      <c r="H13" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9">
+      <c r="C14" t="s">
+        <v>115</v>
+      </c>
+      <c r="H14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9">
+      <c r="C15" t="s">
+        <v>116</v>
+      </c>
+      <c r="H15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9">
+      <c r="C16" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="H16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8">
+      <c r="C17" t="s">
+        <v>117</v>
+      </c>
+      <c r="H17" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8">
+      <c r="C18" t="s">
+        <v>118</v>
+      </c>
+      <c r="H18" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8">
+      <c r="C19" t="s">
+        <v>119</v>
+      </c>
+      <c r="H19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8">
+      <c r="C20" t="s">
+        <v>120</v>
+      </c>
+      <c r="H20" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8">
+      <c r="C21" t="s">
+        <v>121</v>
+      </c>
+      <c r="H21" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8">
+      <c r="C22" t="s">
+        <v>122</v>
+      </c>
+      <c r="H22" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8">
+      <c r="C23" t="s">
+        <v>123</v>
+      </c>
+      <c r="H23" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8">
+      <c r="C24" t="s">
+        <v>124</v>
+      </c>
+      <c r="H24" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8">
+      <c r="C25" t="s">
+        <v>125</v>
+      </c>
+      <c r="H25" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8">
+      <c r="C26" t="s">
+        <v>126</v>
+      </c>
+      <c r="H26" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8">
+      <c r="C27" t="s">
+        <v>127</v>
+      </c>
+      <c r="H27" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8">
+      <c r="C28" t="s">
+        <v>128</v>
+      </c>
+      <c r="H28" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8">
+      <c r="C29" t="s">
+        <v>129</v>
+      </c>
+      <c r="H29" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8">
+      <c r="C30" t="s">
+        <v>130</v>
+      </c>
+      <c r="H30" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="31" spans="3:8">
+      <c r="C31" t="s">
+        <v>131</v>
+      </c>
+      <c r="H31" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="32" spans="3:8">
+      <c r="C32" t="s">
+        <v>132</v>
+      </c>
+      <c r="H32" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8">
+      <c r="C33" t="s">
+        <v>133</v>
+      </c>
+      <c r="H33" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8">
+      <c r="C34" t="s">
+        <v>134</v>
+      </c>
+      <c r="H34" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8">
+      <c r="C35" t="s">
+        <v>135</v>
+      </c>
+      <c r="H35" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8">
+      <c r="C36" t="s">
+        <v>136</v>
+      </c>
+      <c r="H36" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8">
+      <c r="C37" t="s">
+        <v>137</v>
+      </c>
+      <c r="H37" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8">
+      <c r="C38" t="s">
+        <v>138</v>
+      </c>
+      <c r="H38" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="39" spans="3:8">
+      <c r="C39" t="s">
+        <v>139</v>
+      </c>
+      <c r="H39" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="40" spans="3:8">
+      <c r="C40" t="s">
+        <v>140</v>
+      </c>
+      <c r="H40" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41" spans="3:8">
+      <c r="C41" t="s">
+        <v>141</v>
+      </c>
+      <c r="H41" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="42" spans="3:8">
+      <c r="C42" t="s">
+        <v>142</v>
+      </c>
+      <c r="H42" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="43" spans="3:8">
+      <c r="C43" t="s">
+        <v>143</v>
+      </c>
+      <c r="H43" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="44" spans="3:8">
+      <c r="C44" t="s">
+        <v>144</v>
+      </c>
+      <c r="H44" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="45" spans="3:8">
+      <c r="C45" t="s">
+        <v>145</v>
+      </c>
+      <c r="H45" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="46" spans="3:8">
+      <c r="C46" t="s">
+        <v>146</v>
+      </c>
+      <c r="H46" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="47" spans="3:8">
+      <c r="C47" t="s">
+        <v>147</v>
+      </c>
+      <c r="H47" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="48" spans="3:8">
+      <c r="C48" t="s">
+        <v>148</v>
+      </c>
+      <c r="H48" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="49" spans="3:8">
+      <c r="C49" t="s">
+        <v>149</v>
+      </c>
+      <c r="H49" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="50" spans="3:8">
+      <c r="C50" t="s">
+        <v>150</v>
+      </c>
+      <c r="H50" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="51" spans="3:8">
+      <c r="C51" t="s">
+        <v>151</v>
+      </c>
+      <c r="H51" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="52" spans="3:8">
+      <c r="C52" t="s">
+        <v>152</v>
+      </c>
+      <c r="H52" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="53" spans="3:8">
+      <c r="C53" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="54" spans="3:8">
+      <c r="C54" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="55" spans="3:8">
+      <c r="C55" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="56" spans="3:8">
+      <c r="C56" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="57" spans="3:8">
+      <c r="C57" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="58" spans="3:8">
+      <c r="C58" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="59" spans="3:8">
+      <c r="C59" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="60" spans="3:8">
+      <c r="C60" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="61" spans="3:8">
+      <c r="C61" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="62" spans="3:8">
+      <c r="C62" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="63" spans="3:8">
+      <c r="C63" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="64" spans="3:8">
+      <c r="C64" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3">
+      <c r="C65" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3">
+      <c r="C66" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3">
+      <c r="C67" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3">
+      <c r="C68" t="s">
+        <v>168</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>